--- a/bob-ross/Bob Ross Raw Data.xlsx
+++ b/bob-ross/Bob Ross Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfrench/Documents/GitHub/mfrench022.github.io/bob-ross/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543FDF6-0482-474D-BB45-3A2A8C95AD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25037B37-B299-0C42-B080-493BF99C0D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="680" windowWidth="19400" windowHeight="20660" xr2:uid="{07DA232B-26FE-C249-8112-2DC96DA648C6}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="22740" windowHeight="20620" xr2:uid="{07DA232B-26FE-C249-8112-2DC96DA648C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>Season</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Waterfall</t>
-  </si>
-  <si>
-    <t>Cabin</t>
   </si>
   <si>
     <t>Building</t>
@@ -646,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42C9129-AA2C-AF46-A397-EB6E22608D27}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,10 +672,10 @@
         <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1414,7 +1411,7 @@
         <v>53</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,7 +1480,7 @@
         <v>57</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1529,7 +1526,7 @@
         <v>57</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1579,6 +1576,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I28:I40">
+    <sortCondition ref="I28:I40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bob-ross/Bob Ross Raw Data.xlsx
+++ b/bob-ross/Bob Ross Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfrench/Documents/GitHub/mfrench022.github.io/bob-ross/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25037B37-B299-0C42-B080-493BF99C0D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F44A70-60CD-4D4A-A66C-8DB6C2C401D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="22740" windowHeight="20620" xr2:uid="{07DA232B-26FE-C249-8112-2DC96DA648C6}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="22740" windowHeight="20600" xr2:uid="{07DA232B-26FE-C249-8112-2DC96DA648C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42C9129-AA2C-AF46-A397-EB6E22608D27}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
